--- a/Data/layers/layers_rhesus_2022.xlsx
+++ b/Data/layers/layers_rhesus_2022.xlsx
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01133552443122019</v>
+        <v>0.01316359432614493</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -568,34 +568,34 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00259798822678187</v>
+        <v>0.00250727991327623</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.009000800265452502</v>
+        <v>0.009982372170298324</v>
       </c>
       <c r="M2" t="n">
-        <v>0.004672320739028492</v>
+        <v>0.005073051132820052</v>
       </c>
       <c r="N2" t="n">
-        <v>0.002192510658366562</v>
+        <v>0.002376632868052671</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.000119817156031173</v>
+        <v>0.0001109199974886038</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.004338007616738176</v>
+        <v>0.004845169911967202</v>
       </c>
       <c r="S2" t="n">
-        <v>0.006745599655967862</v>
+        <v>0.006731946497708009</v>
       </c>
     </row>
     <row r="3">
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0002019850565993167</v>
+        <v>0.0002000409263841074</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -653,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.00143551344489336</v>
+        <v>0.001386356153787143</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -666,7 +666,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01133552443122019</v>
+        <v>0.01316359432614493</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -675,49 +675,49 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00224466669723319</v>
+        <v>0.002431192919103653</v>
       </c>
       <c r="F4" t="n">
-        <v>0.008859797407715687</v>
+        <v>0.009580473676268346</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0001455633583192199</v>
+        <v>0.0001781853189712643</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.001349765736477419</v>
+        <v>0.001401785316273358</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01057113571945294</v>
+        <v>0.01258944984221768</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0006367695284340317</v>
+        <v>0.0007444977414007707</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0007627406652186121</v>
+        <v>0.0008903273061495214</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0.001147254699151859</v>
+        <v>0.001154116802825742</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.0002936265220174732</v>
+        <v>0.0003503317250354837</v>
       </c>
       <c r="S4" t="n">
-        <v>0.000147616291712424</v>
+        <v>0.0001596779041174557</v>
       </c>
     </row>
     <row r="5">
@@ -733,19 +733,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.00224466669723319</v>
+        <v>0.002431192919103653</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01131840243718086</v>
+        <v>0.01044529477598416</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01514217009714132</v>
+        <v>0.0162029638328213</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -760,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0002621216833567674</v>
+        <v>0.0002625341707500216</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.003633315795534712</v>
+        <v>0.003334861851516983</v>
       </c>
     </row>
     <row r="6">
@@ -794,10 +794,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.008859797407715687</v>
+        <v>0.009580473676268346</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01131840243718086</v>
+        <v>0.01044529477598416</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001781185653910373</v>
+        <v>0.001903540188780214</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -818,28 +818,28 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01000882295763485</v>
+        <v>0.01026203688782918</v>
       </c>
       <c r="M6" t="n">
-        <v>0.00114446553990361</v>
+        <v>0.001147216248276128</v>
       </c>
       <c r="N6" t="n">
-        <v>0.001179324998513827</v>
+        <v>0.001180363280949629</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0.008847199002912164</v>
+        <v>0.007585966461653987</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.0005030565957470589</v>
+        <v>0.0005223513958097554</v>
       </c>
       <c r="S6" t="n">
-        <v>0.01822116229055159</v>
+        <v>0.01678786864591836</v>
       </c>
     </row>
     <row r="7">
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0003630787628627364</v>
+        <v>0.0003482548627656794</v>
       </c>
     </row>
     <row r="8">
@@ -916,13 +916,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0001455633583192199</v>
+        <v>0.0001781853189712643</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01514217009714132</v>
+        <v>0.0162029638328213</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001781185653910373</v>
+        <v>0.001903540188780214</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.002319350443765297</v>
+        <v>0.002681974544790358</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0.009457147728590611</v>
+        <v>0.009393825858887202</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0.00349710625227534</v>
+        <v>0.003737165046198416</v>
       </c>
     </row>
     <row r="9">
@@ -1032,13 +1032,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.00259798822678187</v>
+        <v>0.00250727991327623</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.001349765736477419</v>
+        <v>0.001401785316273358</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0008003658815458496</v>
+        <v>0.0007893180114785122</v>
       </c>
       <c r="M10" t="n">
-        <v>0.002301003257607652</v>
+        <v>0.002222185866328012</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1074,16 +1074,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0.003416523780917469</v>
+        <v>0.002868742390027763</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0.0006036059103089354</v>
+        <v>0.0006036735238098399</v>
       </c>
       <c r="S10" t="n">
-        <v>0.01254563271354656</v>
+        <v>0.01122960593531369</v>
       </c>
     </row>
     <row r="11">
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0002019850565993167</v>
+        <v>0.0002000409263841074</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1135,13 +1135,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0.0003569063431360203</v>
+        <v>0.0003533305289708992</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0.002885210424252741</v>
+        <v>0.003395401728097944</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1154,19 +1154,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.009000800265452502</v>
+        <v>0.009982372170298324</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01057113571945294</v>
+        <v>0.01258944984221768</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01000882295763485</v>
+        <v>0.01026203688782918</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0008003658815458496</v>
+        <v>0.0007893180114785122</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0005618130661104267</v>
+        <v>0.0006267227304469187</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1196,16 +1196,16 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0.004372805711049954</v>
+        <v>0.004142555608681616</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.001226181908971589</v>
+        <v>0.001404397095778679</v>
       </c>
       <c r="S12" t="n">
-        <v>0.02381041720482658</v>
+        <v>0.02437516361557149</v>
       </c>
     </row>
     <row r="13">
@@ -1215,55 +1215,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.004672320739028492</v>
+        <v>0.005073051132820052</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0006367695284340317</v>
+        <v>0.0007444977414007707</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0002621216833567674</v>
+        <v>0.0002625341707500216</v>
       </c>
       <c r="F13" t="n">
-        <v>0.00114446553990361</v>
+        <v>0.001147216248276128</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.002319350443765297</v>
+        <v>0.002681974544790358</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.002301003257607652</v>
+        <v>0.002222185866328012</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0005618130661104267</v>
+        <v>0.0006267227304469187</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0.001190117948294937</v>
+        <v>0.001296627726309681</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0.01592197515904416</v>
+        <v>0.01472915296330067</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0.003365418100361689</v>
+        <v>0.003780119289230695</v>
       </c>
       <c r="S13" t="n">
         <v>0.002010150896530975</v>
@@ -1276,19 +1276,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.002192510658366562</v>
+        <v>0.002376632868052671</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0007627406652186121</v>
+        <v>0.0008903273061495214</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.001179324998513827</v>
+        <v>0.001180363280949629</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.001190117948294937</v>
+        <v>0.001296627726309681</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1324,10 +1324,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0.0004909917388255989</v>
+        <v>0.0005506077110467355</v>
       </c>
       <c r="S14" t="n">
-        <v>0.002236249942428468</v>
+        <v>0.002232736400146402</v>
       </c>
     </row>
     <row r="15">
@@ -1398,40 +1398,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.000119817156031173</v>
+        <v>0.0001109199974886038</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.001147254699151859</v>
+        <v>0.001154116802825742</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.008847199002912164</v>
+        <v>0.007585966461653987</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.009457147728590611</v>
+        <v>0.009393825858887202</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.003416523780917469</v>
+        <v>0.002868742390027763</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0003569063431360203</v>
+        <v>0.0003533305289708992</v>
       </c>
       <c r="L16" t="n">
-        <v>0.004372805711049954</v>
+        <v>0.004142555608681616</v>
       </c>
       <c r="M16" t="n">
-        <v>0.01592197515904416</v>
+        <v>0.01472915296330067</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0.0142427179157827</v>
+        <v>0.01211734191949157</v>
       </c>
     </row>
     <row r="17">
@@ -1520,19 +1520,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.004338007616738176</v>
+        <v>0.004845169911967202</v>
       </c>
       <c r="C18" t="n">
-        <v>0.00143551344489336</v>
+        <v>0.001386356153787143</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0002936265220174732</v>
+        <v>0.0003503317250354837</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0005030565957470589</v>
+        <v>0.0005223513958097554</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0006036059103089354</v>
+        <v>0.0006036735238098399</v>
       </c>
       <c r="K18" t="n">
-        <v>0.002885210424252741</v>
+        <v>0.003395401728097944</v>
       </c>
       <c r="L18" t="n">
-        <v>0.001226181908971589</v>
+        <v>0.001404397095778679</v>
       </c>
       <c r="M18" t="n">
-        <v>0.003365418100361689</v>
+        <v>0.003780119289230695</v>
       </c>
       <c r="N18" t="n">
-        <v>0.0004909917388255989</v>
+        <v>0.0005506077110467355</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -1571,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0.006232967415491097</v>
+        <v>0.006465523061929301</v>
       </c>
     </row>
     <row r="19">
@@ -1581,55 +1581,55 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.006745599655967862</v>
+        <v>0.006731946497708009</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.000147616291712424</v>
+        <v>0.0001596779041174557</v>
       </c>
       <c r="E19" t="n">
-        <v>0.003633315795534712</v>
+        <v>0.003334861851516983</v>
       </c>
       <c r="F19" t="n">
-        <v>0.01822116229055159</v>
+        <v>0.01678786864591836</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0003630787628627364</v>
+        <v>0.0003482548627656794</v>
       </c>
       <c r="H19" t="n">
-        <v>0.00349710625227534</v>
+        <v>0.003737165046198416</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.01254563271354656</v>
+        <v>0.01122960593531369</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0.02381041720482658</v>
+        <v>0.02437516361557149</v>
       </c>
       <c r="M19" t="n">
         <v>0.002010150896530975</v>
       </c>
       <c r="N19" t="n">
-        <v>0.002236249942428468</v>
+        <v>0.002232736400146402</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0.0142427179157827</v>
+        <v>0.01211734191949157</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0.006232967415491097</v>
+        <v>0.006465523061929301</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0005548440737823892</v>
+        <v>0.000644323281719644</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -1773,22 +1773,22 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02677060788669114</v>
+        <v>0.02779771080520286</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01018444090220252</v>
+        <v>0.009559524735389579</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0003022992910761772</v>
+        <v>0.0002917445631583232</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001608771418903861</v>
+        <v>0.001784214132834097</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -1797,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.002421116109438454</v>
+        <v>0.002285192479543138</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -1834,19 +1834,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02336857244787404</v>
+        <v>0.02092480115245081</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03874457085909138</v>
+        <v>0.03168172229956048</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05945942241813765</v>
+        <v>0.05888711839897792</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -1858,16 +1858,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.02643762437763949</v>
+        <v>0.0217366397148792</v>
       </c>
       <c r="P3" t="n">
-        <v>0.009019334118423246</v>
+        <v>0.007216179497514999</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.02663703678471742</v>
+        <v>0.02572488610017218</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1880,7 +1880,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0005548440737823892</v>
+        <v>0.000644323281719644</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.003866786686024532</v>
+        <v>0.004322200617285919</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1910,13 +1910,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001187916086369293</v>
+        <v>0.001414721216622851</v>
       </c>
       <c r="M4" t="n">
-        <v>0.002600999306581986</v>
+        <v>0.003041034507253234</v>
       </c>
       <c r="N4" t="n">
-        <v>0.001100981295138838</v>
+        <v>0.001285146780971779</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -1953,16 +1953,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00387642599174386</v>
+        <v>0.003577396402520614</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.006332607016051328</v>
+        <v>0.006776241568434183</v>
       </c>
       <c r="I5" t="n">
-        <v>0.003312685864722217</v>
+        <v>0.002878518940018884</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -1974,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0307868651454072</v>
+        <v>0.03083531284949512</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00387642599174386</v>
+        <v>0.003577396402520614</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06272964532106548</v>
+        <v>0.05478632623003964</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0008363709828064721</v>
+        <v>0.0008371073271579926</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -2063,13 +2063,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02677060788669114</v>
+        <v>0.02779771080520286</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02336857244787404</v>
+        <v>0.02092480115245081</v>
       </c>
       <c r="D7" t="n">
-        <v>0.003866786686024532</v>
+        <v>0.004322200617285919</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -2084,10 +2084,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.004092558532513155</v>
+        <v>0.003710274022713993</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01533368958352811</v>
+        <v>0.01430182094118268</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -2105,10 +2105,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0.003549778545151973</v>
+        <v>0.003167967947038895</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.007712654019662362</v>
+        <v>0.008012046732614487</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -2133,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.006332607016051328</v>
+        <v>0.006776241568434183</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -2151,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.003711334548271892</v>
+        <v>0.004482598481447362</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -2160,16 +2160,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0.01379309582459706</v>
+        <v>0.0159235085016335</v>
       </c>
       <c r="O8" t="n">
-        <v>0.00929719723560209</v>
+        <v>0.009367651262764455</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.003416167414213708</v>
+        <v>0.003925899492414713</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -2185,22 +2185,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01018444090220252</v>
+        <v>0.009559524735389579</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03874457085909138</v>
+        <v>0.03168172229956048</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.003312685864722217</v>
+        <v>0.002878518940018884</v>
       </c>
       <c r="F9" t="n">
-        <v>0.06272964532106548</v>
+        <v>0.05478632623003964</v>
       </c>
       <c r="G9" t="n">
-        <v>0.004092558532513155</v>
+        <v>0.003710274022713993</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.006041239582435007</v>
+        <v>0.006036253271659461</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -2221,22 +2221,22 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0005501824995608314</v>
+        <v>0.0005156335391086382</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1351309535206714</v>
+        <v>0.1127108007308679</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.00166050039001477</v>
+        <v>0.001559379726834099</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.004427830185078218</v>
+        <v>0.003841256303545417</v>
       </c>
     </row>
     <row r="10">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0003022992910761772</v>
+        <v>0.0002917445631583232</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -2261,7 +2261,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01533368958352811</v>
+        <v>0.01430182094118268</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.05945942241813765</v>
+        <v>0.05888711839897792</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -2325,10 +2325,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.003711334548271892</v>
+        <v>0.004482598481447362</v>
       </c>
       <c r="I11" t="n">
-        <v>0.006041239582435007</v>
+        <v>0.006036253271659461</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -2343,19 +2343,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0007350803949058377</v>
+        <v>0.0008451254893375418</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1100799733675683</v>
+        <v>0.1105577763398212</v>
       </c>
       <c r="P11" t="n">
-        <v>0.002691451480344905</v>
+        <v>0.002664486057865748</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.009176137953520746</v>
+        <v>0.01050349563197332</v>
       </c>
       <c r="R11" t="n">
-        <v>0.01580546622816879</v>
+        <v>0.01860034432615684</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.001608771418903861</v>
+        <v>0.001784214132834097</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.001187916086369293</v>
+        <v>0.001414721216622851</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -2413,7 +2413,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.0198568123623509</v>
+        <v>0.02203098878293534</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2435,10 +2435,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.002600999306581986</v>
+        <v>0.003041034507253234</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0307868651454072</v>
+        <v>0.03083531284949512</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -2496,28 +2496,28 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.001100981295138838</v>
+        <v>0.001285146780971779</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0008363709828064721</v>
+        <v>0.0008371073271579926</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.01379309582459706</v>
+        <v>0.0159235085016335</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0005501824995608314</v>
+        <v>0.0005156335391086382</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0007350803949058377</v>
+        <v>0.0008451254893375418</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0.03565233860209686</v>
+        <v>0.03360523642929691</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -2551,10 +2551,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.002421116109438454</v>
+        <v>0.002285192479543138</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02643762437763949</v>
+        <v>0.0217366397148792</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -2569,16 +2569,16 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.00929719723560209</v>
+        <v>0.009367651262764455</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1351309535206714</v>
+        <v>0.1127108007308679</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1100799733675683</v>
+        <v>0.1105577763398212</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2587,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0.03565233860209686</v>
+        <v>0.03360523642929691</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -2596,10 +2596,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.01120016222281768</v>
+        <v>0.01057653116857966</v>
       </c>
       <c r="R15" t="n">
-        <v>0.006455188509289134</v>
+        <v>0.00632798042684941</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -2615,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.009019334118423246</v>
+        <v>0.007216179497514999</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -2627,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.003549778545151973</v>
+        <v>0.003167967947038895</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.002691451480344905</v>
+        <v>0.002664486057865748</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.01457838706752507</v>
+        <v>0.01350307116964733</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2688,22 +2688,22 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.007712654019662362</v>
+        <v>0.008012046732614487</v>
       </c>
       <c r="H17" t="n">
-        <v>0.003416167414213708</v>
+        <v>0.003925899492414713</v>
       </c>
       <c r="I17" t="n">
-        <v>0.00166050039001477</v>
+        <v>0.001559379726834099</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.009176137953520746</v>
+        <v>0.01050349563197332</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0198568123623509</v>
+        <v>0.02203098878293534</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0.01120016222281768</v>
+        <v>0.01057653116857966</v>
       </c>
       <c r="P17" t="n">
-        <v>0.01457838706752507</v>
+        <v>0.01350307116964733</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -2737,7 +2737,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.02663703678471742</v>
+        <v>0.02572488610017218</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.01580546622816879</v>
+        <v>0.01860034432615684</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0.006455188509289134</v>
+        <v>0.00632798042684941</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2816,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.004427830185078218</v>
+        <v>0.003841256303545417</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -3127,10 +3127,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>6.933194205045703e-05</v>
+        <v>8.106147037285856e-05</v>
       </c>
       <c r="N4" t="n">
-        <v>0.008450269499074856</v>
+        <v>0.009863779423891657</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -3267,7 +3267,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.001106569949731899</v>
+        <v>0.001019526123931869</v>
       </c>
     </row>
     <row r="7">
@@ -3365,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>8.940608170882523e-05</v>
+        <v>0.0001079858366006778</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>8.940608170882523e-05</v>
+        <v>0.0001079858366006778</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -3563,13 +3563,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0.001058671412254132</v>
+        <v>0.001048064673805932</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0.02090540483036578</v>
+        <v>0.02460210426627556</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -3615,7 +3615,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0002298123344296026</v>
+        <v>0.0002563639445434179</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.03608452415217908</v>
+        <v>0.040035516896031</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -3649,7 +3649,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>6.933194205045703e-05</v>
+        <v>8.106147037285856e-05</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0002298123344296026</v>
+        <v>0.0002563639445434179</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -3710,7 +3710,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.008450269499074856</v>
+        <v>0.009863779423891657</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -3853,7 +3853,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.001058671412254132</v>
+        <v>0.001048064673805932</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -3871,7 +3871,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.01800449365988094</v>
+        <v>0.01667646483364428</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -3917,7 +3917,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0.03608452415217908</v>
+        <v>0.040035516896031</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -3929,7 +3929,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0.01800449365988094</v>
+        <v>0.01667646483364428</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -3975,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.02090540483036578</v>
+        <v>0.02460210426627556</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -4021,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.001106569949731899</v>
+        <v>0.001019526123931869</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -9040,13 +9040,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01183439954907379</v>
+        <v>0.0122022396576141</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0471167973204202</v>
+        <v>0.04807250187620583</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -9055,28 +9055,28 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2354574234747737</v>
+        <v>0.2397233634007059</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2084266130951901</v>
+        <v>0.2238019018788392</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2081302357941343</v>
+        <v>0.1772097893147739</v>
       </c>
       <c r="M2" t="n">
-        <v>1.123487835497741</v>
+        <v>0.9797858661312375</v>
       </c>
       <c r="N2" t="n">
-        <v>0.3560564557113206</v>
+        <v>0.3316070788828903</v>
       </c>
       <c r="O2" t="n">
-        <v>0.04190236819805551</v>
+        <v>0.04446710350106117</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -9085,10 +9085,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.453031656652185</v>
+        <v>1.34159973325958</v>
       </c>
       <c r="S2" t="n">
-        <v>0.02692353620620422</v>
+        <v>0.02679921545700749</v>
       </c>
     </row>
     <row r="3">
@@ -9098,31 +9098,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01183439954907379</v>
+        <v>0.0122022396576141</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.149524091928904</v>
+        <v>0.1549586810600582</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01155057395466144</v>
+        <v>0.01286231318882048</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1020515699772635</v>
+        <v>0.1131841992228877</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02884591267323755</v>
+        <v>0.03280701473111412</v>
       </c>
       <c r="I3" t="n">
-        <v>13.5608637846243</v>
+        <v>14.71455577778084</v>
       </c>
       <c r="J3" t="n">
-        <v>0.006907559922953276</v>
+        <v>0.008183823577079646</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -9131,7 +9131,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1466304733799144</v>
+        <v>0.1510359932918147</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -9140,16 +9140,16 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01419982080181304</v>
+        <v>0.01410194185671689</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.6507746829794641</v>
+        <v>0.6623329118100761</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.07917141487871648</v>
+        <v>0.08830439024683347</v>
       </c>
     </row>
     <row r="4">
@@ -9162,31 +9162,31 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.149524091928904</v>
+        <v>0.1549586810600582</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8258292607487921</v>
+        <v>0.8229202308686584</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.05608127279277427</v>
+        <v>0.05595946711464057</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2.549826086977615</v>
+        <v>2.707323039411053</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.259433800176914</v>
+        <v>0.2589965849324999</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -9198,16 +9198,16 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2153546673558581</v>
+        <v>0.2293937064263794</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.6123851800974475</v>
+        <v>0.5322837293560289</v>
       </c>
       <c r="R4" t="n">
-        <v>3.130091876881594</v>
+        <v>2.760045993248134</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -9220,13 +9220,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0471167973204202</v>
+        <v>0.04807250187620583</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01155057395466144</v>
+        <v>0.01286231318882048</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8258292607487921</v>
+        <v>0.8229202308686584</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -9235,16 +9235,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05157878331399341</v>
+        <v>0.05551864906799936</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01702695876113762</v>
+        <v>0.02069531229937514</v>
       </c>
       <c r="J5" t="n">
-        <v>5.349522647588011</v>
+        <v>5.737391548313959</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -9253,13 +9253,13 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05260774937458215</v>
+        <v>0.05215719698543239</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3194949496971934</v>
+        <v>0.3899326023184729</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -9268,10 +9268,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0127440954704307</v>
+        <v>0.01262676047346535</v>
       </c>
       <c r="S5" t="n">
-        <v>0.02799750849053166</v>
+        <v>0.03028949934863467</v>
       </c>
     </row>
     <row r="6">
@@ -9296,7 +9296,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6200982091974655</v>
+        <v>0.6807063726977725</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -9305,16 +9305,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.08956791379191882</v>
+        <v>0.1058414315078813</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1786512643267211</v>
+        <v>0.1961978562717566</v>
       </c>
       <c r="L6" t="n">
-        <v>0.08222492848175637</v>
+        <v>0.07757674670275487</v>
       </c>
       <c r="M6" t="n">
-        <v>0.00854142294093191</v>
+        <v>0.008135307632917723</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -9323,13 +9323,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0.3551803340208295</v>
+        <v>0.3502209489143743</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.5412955128909102</v>
+        <v>0.5124035425694476</v>
       </c>
       <c r="R6" t="n">
-        <v>0.09479755662585689</v>
+        <v>0.09085666044283401</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9345,37 +9345,37 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1020515699772635</v>
+        <v>0.1131841992228877</v>
       </c>
       <c r="D7" t="n">
-        <v>0.05608127279277427</v>
+        <v>0.05595946711464057</v>
       </c>
       <c r="E7" t="n">
-        <v>0.05157878331399341</v>
+        <v>0.05551864906799936</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6200982091974655</v>
+        <v>0.6807063726977725</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2490083139036505</v>
+        <v>0.276881917042587</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2795201308967923</v>
+        <v>0.3232824585422929</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002818696960330846</v>
+        <v>0.0025911147228385</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1586901398405631</v>
+        <v>0.1572597013930194</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -9384,16 +9384,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0.06811991596485487</v>
+        <v>0.06571479102151589</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2359062443357083</v>
+        <v>0.2340922766245817</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1099162816163318</v>
+        <v>0.1185075529893796</v>
       </c>
     </row>
     <row r="8">
@@ -9403,10 +9403,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2354574234747737</v>
+        <v>0.2397233634007059</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02884591267323755</v>
+        <v>0.03280701473111412</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -9418,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2490083139036505</v>
+        <v>0.276881917042587</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -9427,16 +9427,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2762019950243501</v>
+        <v>0.3287357159525309</v>
       </c>
       <c r="K8" t="n">
-        <v>23.11807514046169</v>
+        <v>23.61450393406706</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1028701946710127</v>
+        <v>0.09677097972288502</v>
       </c>
       <c r="M8" t="n">
-        <v>0.5601397397714293</v>
+        <v>0.5694090042004708</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -9445,7 +9445,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0.01882859643971904</v>
+        <v>0.01843863655652995</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -9454,7 +9454,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0.1575199568401242</v>
+        <v>0.1623992067195223</v>
       </c>
     </row>
     <row r="9">
@@ -9467,13 +9467,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>13.5608637846243</v>
+        <v>14.71455577778084</v>
       </c>
       <c r="D9" t="n">
-        <v>2.549826086977615</v>
+        <v>2.707323039411053</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01702695876113762</v>
+        <v>0.02069531229937514</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -9491,10 +9491,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2125505231861363</v>
+        <v>0.2572081011415242</v>
       </c>
       <c r="L9" t="n">
-        <v>0.7354982602812833</v>
+        <v>0.6775676954667033</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -9503,16 +9503,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1421068064480557</v>
+        <v>0.1720083305074682</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.382033882098388</v>
+        <v>1.446692344870224</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1399356287409213</v>
+        <v>0.1478149081422673</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9525,25 +9525,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2084266130951901</v>
+        <v>0.2238019018788392</v>
       </c>
       <c r="C10" t="n">
-        <v>0.006907559922953276</v>
+        <v>0.008183823577079646</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>5.349522647588011</v>
+        <v>5.737391548313959</v>
       </c>
       <c r="F10" t="n">
-        <v>0.08956791379191882</v>
+        <v>0.1058414315078813</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2795201308967923</v>
+        <v>0.3232824585422929</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2762019950243501</v>
+        <v>0.3287357159525309</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -9555,19 +9555,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02698915113945194</v>
+        <v>0.02696041387833897</v>
       </c>
       <c r="M10" t="n">
-        <v>0.003472671247820867</v>
+        <v>0.003730109787581296</v>
       </c>
       <c r="N10" t="n">
-        <v>0.05280575341648869</v>
+        <v>0.05679318345997448</v>
       </c>
       <c r="O10" t="n">
-        <v>0.003424376017764825</v>
+        <v>0.004162446933228189</v>
       </c>
       <c r="P10" t="n">
-        <v>0.03175322052860097</v>
+        <v>0.03274600300660753</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -9576,7 +9576,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1187627507272476</v>
+        <v>0.1385809202610383</v>
       </c>
     </row>
     <row r="11">
@@ -9592,22 +9592,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.259433800176914</v>
+        <v>0.2589965849324999</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1786512643267211</v>
+        <v>0.1961978562717566</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>23.11807514046169</v>
+        <v>23.61450393406706</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2125505231861363</v>
+        <v>0.2572081011415242</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -9616,7 +9616,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>11.64303145181324</v>
+        <v>9.942367577626625</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -9625,7 +9625,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0.07913004085819757</v>
+        <v>0.09613686615364954</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -9634,7 +9634,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0.0384628291810941</v>
+        <v>0.0381858680720215</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2081302357941343</v>
+        <v>0.1772097893147739</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -9659,46 +9659,46 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.08222492848175637</v>
+        <v>0.07757674670275487</v>
       </c>
       <c r="G12" t="n">
-        <v>0.002818696960330846</v>
+        <v>0.0025911147228385</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1028701946710127</v>
+        <v>0.09677097972288502</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7354982602812833</v>
+        <v>0.6775676954667033</v>
       </c>
       <c r="J12" t="n">
-        <v>0.02698915113945194</v>
+        <v>0.02696041387833897</v>
       </c>
       <c r="K12" t="n">
-        <v>11.64303145181324</v>
+        <v>9.942367577626625</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.3350597445796625</v>
+        <v>0.283063683376738</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2224792712409463</v>
+        <v>0.2194417691836357</v>
       </c>
       <c r="P12" t="n">
-        <v>0.08037367531628468</v>
+        <v>0.06701443212343701</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.2089184137566155</v>
+        <v>0.1767087730681074</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0.3745642483083534</v>
+        <v>0.3440761446291038</v>
       </c>
     </row>
     <row r="13">
@@ -9708,58 +9708,58 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.123487835497741</v>
+        <v>0.9797858661312375</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1466304733799144</v>
+        <v>0.1510359932918147</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.05260774937458215</v>
+        <v>0.05215719698543239</v>
       </c>
       <c r="F13" t="n">
-        <v>0.00854142294093191</v>
+        <v>0.008135307632917723</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1586901398405631</v>
+        <v>0.1572597013930194</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5601397397714293</v>
+        <v>0.5694090042004708</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.003472671247820867</v>
+        <v>0.003730109787581296</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0.3350597445796625</v>
+        <v>0.283063683376738</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0.08547370450130924</v>
+        <v>0.07790308184045816</v>
       </c>
       <c r="O13" t="n">
-        <v>0.08226937685516351</v>
+        <v>0.08730096999756097</v>
       </c>
       <c r="P13" t="n">
-        <v>0.2951358383594138</v>
+        <v>0.262325982054367</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1025635869016814</v>
+        <v>0.0940641358316258</v>
       </c>
       <c r="S13" t="n">
-        <v>0.04728877240571502</v>
+        <v>0.04695755229947202</v>
       </c>
     </row>
     <row r="14">
@@ -9769,7 +9769,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3560564557113206</v>
+        <v>0.3316070788828903</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -9793,7 +9793,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.05280575341648869</v>
+        <v>0.05679318345997448</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -9802,13 +9802,13 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.08547370450130924</v>
+        <v>0.07790308184045816</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5029040330484869</v>
+        <v>0.5444403157558498</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9817,10 +9817,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0.07673305668076492</v>
+        <v>0.07048876075203096</v>
       </c>
       <c r="S14" t="n">
-        <v>0.7192947781764621</v>
+        <v>0.761223591833537</v>
       </c>
     </row>
     <row r="15">
@@ -9830,16 +9830,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.04190236819805551</v>
+        <v>0.04446710350106117</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2153546673558581</v>
+        <v>0.2293937064263794</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3194949496971934</v>
+        <v>0.3899326023184729</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -9851,22 +9851,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1421068064480557</v>
+        <v>0.1720083305074682</v>
       </c>
       <c r="J15" t="n">
-        <v>0.003424376017764825</v>
+        <v>0.004162446933228189</v>
       </c>
       <c r="K15" t="n">
-        <v>0.07913004085819757</v>
+        <v>0.09613686615364954</v>
       </c>
       <c r="L15" t="n">
-        <v>0.2224792712409463</v>
+        <v>0.2194417691836357</v>
       </c>
       <c r="M15" t="n">
-        <v>0.08226937685516351</v>
+        <v>0.08730096999756097</v>
       </c>
       <c r="N15" t="n">
-        <v>0.5029040330484869</v>
+        <v>0.5444403157558498</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0.05456268753434908</v>
+        <v>0.06265149555199341</v>
       </c>
     </row>
     <row r="16">
@@ -9894,7 +9894,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01419982080181304</v>
+        <v>0.01410194185671689</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -9903,28 +9903,28 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3551803340208295</v>
+        <v>0.3502209489143743</v>
       </c>
       <c r="G16" t="n">
-        <v>0.06811991596485487</v>
+        <v>0.06571479102151589</v>
       </c>
       <c r="H16" t="n">
-        <v>0.01882859643971904</v>
+        <v>0.01843863655652995</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.03175322052860097</v>
+        <v>0.03274600300660753</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0.08037367531628468</v>
+        <v>0.06701443212343701</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2951358383594138</v>
+        <v>0.262325982054367</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -9942,7 +9942,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0.0541310702303987</v>
+        <v>0.05191073427239955</v>
       </c>
     </row>
     <row r="17">
@@ -9955,16 +9955,16 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6507746829794641</v>
+        <v>0.6623329118100761</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6123851800974475</v>
+        <v>0.5322837293560289</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5412955128909102</v>
+        <v>0.5124035425694476</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -9973,7 +9973,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.382033882098388</v>
+        <v>1.446692344870224</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -9982,7 +9982,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0.2089184137566155</v>
+        <v>0.1767087730681074</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -10000,7 +10000,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0.8974558630695489</v>
+        <v>0.7758174915365861</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -10013,43 +10013,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.453031656652185</v>
+        <v>1.34159973325958</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>3.130091876881594</v>
+        <v>2.760045993248134</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0127440954704307</v>
+        <v>0.01262676047346535</v>
       </c>
       <c r="F18" t="n">
-        <v>0.09479755662585689</v>
+        <v>0.09085666044283401</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2359062443357083</v>
+        <v>0.2340922766245817</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1399356287409213</v>
+        <v>0.1478149081422673</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0384628291810941</v>
+        <v>0.0381858680720215</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.1025635869016814</v>
+        <v>0.0940641358316258</v>
       </c>
       <c r="N18" t="n">
-        <v>0.07673305668076492</v>
+        <v>0.07048876075203096</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -10058,7 +10058,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.8974558630695489</v>
+        <v>0.7758174915365861</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -10074,49 +10074,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.02692353620620422</v>
+        <v>0.02679921545700749</v>
       </c>
       <c r="C19" t="n">
-        <v>0.07917141487871648</v>
+        <v>0.08830439024683347</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.02799750849053166</v>
+        <v>0.03028949934863467</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1099162816163318</v>
+        <v>0.1185075529893796</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1575199568401242</v>
+        <v>0.1623992067195223</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1187627507272476</v>
+        <v>0.1385809202610383</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0.3745642483083534</v>
+        <v>0.3440761446291038</v>
       </c>
       <c r="M19" t="n">
-        <v>0.04728877240571502</v>
+        <v>0.04695755229947202</v>
       </c>
       <c r="N19" t="n">
-        <v>0.7192947781764621</v>
+        <v>0.761223591833537</v>
       </c>
       <c r="O19" t="n">
-        <v>0.05456268753434908</v>
+        <v>0.06265149555199341</v>
       </c>
       <c r="P19" t="n">
-        <v>0.0541310702303987</v>
+        <v>0.05191073427239955</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
